--- a/my_test_data_10.xlsx
+++ b/my_test_data_10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/Documents/GitHub/Saving-Heuristic-VRPTW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/ACO-VRPTW_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD33EAC-7760-AB45-AC18-D955EC0C7954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE7D04-F534-2E4E-B885-2AA0A9A04378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{0658443E-5053-364B-A597-238FF97041AE}"/>
   </bookViews>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D35AAC-9D5E-164F-9E16-00170F692AB2}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,6 +642,190 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>150</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my_test_data_10.xlsx
+++ b/my_test_data_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/ACO-VRPTW_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/Documents/GitHub/Saving-Heuristic-VRPTW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE7D04-F534-2E4E-B885-2AA0A9A04378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F70204A-0E52-BE41-A8E5-0AAD4A3A0614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{0658443E-5053-364B-A597-238FF97041AE}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{0658443E-5053-364B-A597-238FF97041AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D35AAC-9D5E-164F-9E16-00170F692AB2}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A18" sqref="A18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,52 +780,6 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>150</v>
-      </c>
-      <c r="C18">
-        <v>150</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>18</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>150</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>-2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
